--- a/学生成绩样例.xlsx
+++ b/学生成绩样例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZeroHzzzz\Desktop\wintersoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94D28C6-E460-4587-A826-8305862D48BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24088E5-1FA2-4DE1-84B9-D6800E7BA738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{87A6D23D-E60F-4F23-A750-3202059D1508}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="11170" xr2:uid="{87A6D23D-E60F-4F23-A750-3202059D1508}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>userName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,23 +140,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asdfa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adfadf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adfad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adsfa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asdfad</t>
+    <t>zerohzzzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-2024</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,7 +558,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -674,11 +670,11 @@
       <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="3">
+        <v>2306</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="G2" s="3">
         <v>12</v>

--- a/学生成绩样例.xlsx
+++ b/学生成绩样例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZeroHzzzz\Desktop\wintersoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24088E5-1FA2-4DE1-84B9-D6800E7BA738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7126AF1D-EF29-4F38-89F8-B8CEF2CE4721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="11170" xr2:uid="{87A6D23D-E60F-4F23-A750-3202059D1508}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="11170" xr2:uid="{87A6D23D-E60F-4F23-A750-3202059D1508}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zerohzzzz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,6 +149,10 @@
   </si>
   <si>
     <t>2023-2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾斯比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +558,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -659,22 +659,22 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>202222</v>
+        <v>202301</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E2" s="3">
         <v>2306</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="3">
         <v>12</v>
